--- a/biology/Botanique/Canistrum_sandrae/Canistrum_sandrae.xlsx
+++ b/biology/Botanique/Canistrum_sandrae/Canistrum_sandrae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canistrum sandrae est une espèce de plantes tropicales de la famille des Bromeliaceae, endémique du Brésil et décrite en 1999.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de l'État de Bahia dans l'est du Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de l'État de Bahia dans l'est du Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
